--- a/EE568_FinalProject.xlsx
+++ b/EE568_FinalProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parisa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\EE568_FinalProject\EE568_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206AEF13-F402-42F8-845F-6A4FE6FC1D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3E54D-257B-4AB5-8BBB-934CEFE59838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="720" windowWidth="14244" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -942,7 +942,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,8 +991,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1009,11 +1015,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1049,21 +1138,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,16 +1494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>421366</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200649</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>135432</xdr:rowOff>
+      <xdr:rowOff>124921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>336331</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115614</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>174944</xdr:rowOff>
+      <xdr:rowOff>153922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1425,7 +1526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620952" y="8790701"/>
+          <a:off x="8414483" y="8780190"/>
           <a:ext cx="4182165" cy="1878822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1446,7 +1547,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>562305</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>44928</xdr:rowOff>
+      <xdr:rowOff>39673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1490,7 +1591,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1996965</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>162188</xdr:rowOff>
+      <xdr:rowOff>162187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1551,7 +1652,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>2007477</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>158134</xdr:rowOff>
+      <xdr:rowOff>158135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,7 +1696,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>320827</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>111935</xdr:rowOff>
+      <xdr:rowOff>111934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1896,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2079,11 +2180,11 @@
       </c>
       <c r="E10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -2120,11 +2221,11 @@
         <v>22</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -2371,16 +2472,16 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
@@ -2533,7 +2634,7 @@
         <v>0.99968918200081625</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -2545,7 +2646,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>50</v>
       </c>
@@ -2556,11 +2657,11 @@
       <c r="D50" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
@@ -2570,10 +2671,10 @@
         <f>C48*C47</f>
         <v>0.96099264902751558</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="23">
         <v>1.8</v>
       </c>
     </row>
@@ -2588,10 +2689,10 @@
       <c r="D52" t="s">
         <v>32</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="23">
         <f>G51*2/PI()</f>
         <v>1.1459155902616465</v>
       </c>
@@ -2604,10 +2705,10 @@
         <f>C41/C14</f>
         <v>7.875</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="23">
         <v>1.6</v>
       </c>
     </row>
@@ -2618,48 +2719,48 @@
       <c r="C54">
         <v>8</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="23">
         <f>G53*2/PI()</f>
         <v>1.0185916357881302</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F55" t="s">
+      <c r="F55" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="23">
         <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
+      <c r="F56" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="23">
         <f>G55*2/PI()</f>
         <v>0.76394372684109757</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F57" t="s">
+      <c r="F57" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="23">
         <v>1.8</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="17" t="s">
+    <row r="58" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="F58" t="s">
+      <c r="C58" s="15"/>
+      <c r="F58" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="24">
         <f>G57*2/PI()</f>
         <v>1.1459155902616465</v>
       </c>
@@ -2868,11 +2969,11 @@
       <c r="D86" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
@@ -3022,11 +3123,11 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F97" t="s">
@@ -3041,16 +3142,16 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="F99" s="15" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="F99" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F100" t="s">
@@ -3077,11 +3178,11 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
@@ -3121,16 +3222,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="F50:H50"/>
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="F99:H99"/>
     <mergeCell ref="F96:H96"/>
     <mergeCell ref="F86:H86"/>
     <mergeCell ref="B99:D99"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>

--- a/EE568_FinalProject.xlsx
+++ b/EE568_FinalProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\EE568_FinalProject\EE568_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3E54D-257B-4AB5-8BBB-934CEFE59838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C8E726-722D-4980-9E09-675EC9B0B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>specific machine constant</t>
   </si>
@@ -565,43 +565,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>g</t>
     </r>
   </si>
   <si>
@@ -737,9 +700,6 @@
     <t>current density for field winding</t>
   </si>
   <si>
-    <t>a/mm2</t>
-  </si>
-  <si>
     <t>pole tip height</t>
   </si>
   <si>
@@ -770,9 +730,6 @@
     <t>pole body height</t>
   </si>
   <si>
-    <t>insulation thickness</t>
-  </si>
-  <si>
     <t>cross section of field winding</t>
   </si>
   <si>
@@ -852,6 +809,9 @@
   </si>
   <si>
     <t>Material Selection ???</t>
+  </si>
+  <si>
+    <t>A/mm2</t>
   </si>
 </sst>
 </file>
@@ -1138,11 +1098,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,18 +1125,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,7 +1507,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>562305</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>39673</xdr:rowOff>
+      <xdr:rowOff>55439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1591,7 +1551,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1996965</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>162187</xdr:rowOff>
+      <xdr:rowOff>177953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1652,7 +1612,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>2007477</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>158135</xdr:rowOff>
+      <xdr:rowOff>158134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1696,7 +1656,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>320827</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>111934</xdr:rowOff>
+      <xdr:rowOff>111935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1997,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2180,11 +2140,11 @@
       </c>
       <c r="E10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -2221,11 +2181,11 @@
         <v>22</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -2472,16 +2432,16 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
@@ -2657,11 +2617,11 @@
       <c r="D50" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="20"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
@@ -2671,10 +2631,10 @@
         <f>C48*C47</f>
         <v>0.96099264902751558</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="16">
         <v>1.8</v>
       </c>
     </row>
@@ -2689,10 +2649,10 @@
       <c r="D52" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="16">
         <f>G51*2/PI()</f>
         <v>1.1459155902616465</v>
       </c>
@@ -2705,62 +2665,62 @@
         <f>C41/C14</f>
         <v>7.875</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="16">
         <f>G53*2/PI()</f>
         <v>1.0185916357881302</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="16">
         <f>G55*2/PI()</f>
         <v>0.76394372684109757</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="16">
         <v>1.8</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="F58" s="27" t="s">
+      <c r="C58" s="21"/>
+      <c r="F58" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="17">
         <f>G57*2/PI()</f>
         <v>1.1459155902616465</v>
       </c>
@@ -2801,19 +2761,10 @@
     </row>
     <row r="66" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66" s="14">
         <v>1.6800000000000002E-8</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68">
-        <f>C3/C65*G3/1000</f>
-        <v>9002.4102517677384</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2827,7 +2778,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71">
         <v>1.3</v>
@@ -2835,7 +2786,7 @@
     </row>
     <row r="72" spans="2:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72">
         <f>C71*C70</f>
@@ -2844,7 +2795,7 @@
     </row>
     <row r="73" spans="2:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73">
         <f>SQRT((C72+C70*C75)^2+(C70*C74)^2)</f>
@@ -2853,7 +2804,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>0.9</v>
@@ -2861,7 +2812,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75">
         <f>SQRT(1-C74^2)</f>
@@ -2870,7 +2821,7 @@
     </row>
     <row r="76" spans="2:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76">
         <f>C73</f>
@@ -2879,65 +2830,62 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80">
         <v>0.4</v>
       </c>
-      <c r="D80" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81">
         <f>C76/C79</f>
         <v>6128.9499783038609</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82">
         <f>C81*2</f>
         <v>12257.899956607722</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83">
         <f>C82/C80</f>
         <v>30644.749891519303</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84">
         <v>4000</v>
@@ -2948,7 +2896,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C85">
         <f>(PI()*(C84+2*G22)-C14*G23)/C14</f>
@@ -2960,7 +2908,7 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C86">
         <f>G6/2-C84/2-G22</f>
@@ -2969,15 +2917,15 @@
       <c r="D86" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
+      <c r="F86" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C87">
         <f>C82/C80/C85</f>
@@ -2987,7 +2935,7 @@
         <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G87">
         <f>1/C71</f>
@@ -2996,7 +2944,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C88">
         <f>C86-C87</f>
@@ -3006,7 +2954,7 @@
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G88">
         <f>(C88+C87+G3)/1000</f>
@@ -3017,29 +2965,20 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>32</v>
-      </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G89">
         <f>C85*G5/1000000</f>
         <v>9.2077692903420758E-2</v>
       </c>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F90" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G90">
         <f>G88/C65/G89</f>
@@ -3048,47 +2987,47 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F91" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G91">
         <f>(C30^2)/G90</f>
         <v>1.7286513713087245E-3</v>
       </c>
       <c r="H91" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C92">
         <v>85</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G92">
         <f>C12*2*PI()/60*C15</f>
         <v>314.15926535897933</v>
       </c>
       <c r="H92" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C93">
         <f>C81/C92</f>
         <v>72.105293862398369</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G93">
         <f>G92*G91</f>
@@ -3097,25 +3036,25 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C94">
         <v>72</v>
       </c>
       <c r="F94" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G94">
         <f>G87/G92</f>
         <v>2.448537586029159E-3</v>
       </c>
       <c r="H94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C95">
         <f>C76/C94</f>
@@ -3123,15 +3062,15 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
+      <c r="F96" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F97" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G97">
         <f>4.44*C13*C51*C26*C30</f>
@@ -3142,20 +3081,20 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="F99" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
+      <c r="B99" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="F99" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F100" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G100">
         <f>(2*PI()*C54/C53*G4/C14)+(2*G5)</f>
@@ -3167,26 +3106,26 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F101" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G101">
         <f>C66*C30*(G100/1000)/(C37/1000000)</f>
         <v>8.7148777270937214E-3</v>
       </c>
       <c r="H101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F103" s="25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G104">
         <f>2*G5+2*(G23)</f>
@@ -3198,26 +3137,26 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F105" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G105">
         <f>C66*C94*(G104/1000)/(C92/1000000)</f>
         <v>4.090515813461152E-2</v>
       </c>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G106">
         <f>G105*C14</f>
         <v>1.3089650603075687</v>
       </c>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3183,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3258,27 +3197,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
